--- a/Data linking and profiling.xlsx
+++ b/Data linking and profiling.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\Desktop\predict\dpf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\OneDrive\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BDCACE6-D004-4FF1-A8F4-E0971DAE53E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1AC52FD-9B06-4588-85BE-09D002BFF153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{767F4D1D-D98C-4858-8C7A-DA9EC34E7381}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>Customer ID</t>
   </si>
@@ -136,18 +136,6 @@
   </si>
   <si>
     <t>Max. price</t>
-  </si>
-  <si>
-    <t>Customer INFO</t>
-  </si>
-  <si>
-    <t>Transaction DATA</t>
-  </si>
-  <si>
-    <t>Data Linking using VLOOKUP()</t>
-  </si>
-  <si>
-    <t>Data Profiling using VLOOKUP()</t>
   </si>
   <si>
     <t>Linking Customer INFO</t>
@@ -174,13 +162,76 @@
     <t>Gaurav Tiwari
 1220259020
 DPF Assignment1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Customer INFO     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fig.(1.1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transaction DATA    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fig.(1.2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data Profiling using VLOOKUP()    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fig.(1.3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data Linking using VLOOKUP()      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fig.(1.4)</t>
+    </r>
+  </si>
+  <si>
+    <t>Formulas Used :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +403,13 @@
       <color rgb="FFA50021"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -639,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -730,9 +788,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -751,6 +806,24 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -794,15 +867,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -811,13 +875,22 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1171,20 +1244,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="H1" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="A1" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="H1" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="22" t="s">
@@ -1217,8 +1290,8 @@
       <c r="K2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="57" t="s">
-        <v>48</v>
+      <c r="M2" s="59" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -1252,7 +1325,7 @@
       <c r="K3" s="7">
         <v>59.99</v>
       </c>
-      <c r="M3" s="58"/>
+      <c r="M3" s="60"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
@@ -1285,7 +1358,7 @@
       <c r="K4" s="7">
         <v>89.99</v>
       </c>
-      <c r="M4" s="58"/>
+      <c r="M4" s="60"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
@@ -1383,25 +1456,32 @@
         <v>99.99</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J8" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+    </row>
     <row r="9" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="47"/>
+      <c r="A9" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="52"/>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1429,83 +1509,83 @@
       <c r="H10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="50"/>
+      <c r="J10" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55"/>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="32">
+      <c r="A11" s="61">
         <f>AVERAGE(Gaurav!E:E)</f>
-        <v>35.090909090909093</v>
-      </c>
-      <c r="B11" s="33">
+        <v>34.909090909090907</v>
+      </c>
+      <c r="B11" s="32">
         <f>MIN(Gaurav!E:E)</f>
-        <v>4</v>
-      </c>
-      <c r="C11" s="34">
+        <v>2</v>
+      </c>
+      <c r="C11" s="33">
         <f>MAX(Gaurav!E:E)</f>
         <v>50</v>
       </c>
-      <c r="D11" s="35">
-        <f>COUNTIF(Gaurav!F:F, "Male")</f>
-        <v>6</v>
-      </c>
-      <c r="E11" s="36">
-        <f>COUNTIF(Gaurav!F:F, "Female")</f>
-        <v>4</v>
-      </c>
-      <c r="F11" s="37">
+      <c r="D11" s="34">
+        <f>COUNTIF(Gaurav!F:F, "Male")/2</f>
+        <v>3</v>
+      </c>
+      <c r="E11" s="35">
+        <f>COUNTIF(Gaurav!F:F, "Female")/2</f>
+        <v>2</v>
+      </c>
+      <c r="F11" s="36">
         <f>AVERAGE(Gaurav!K:K)</f>
         <v>68.989999999999995</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="32">
         <f>MIN(Gaurav!K:K)</f>
         <v>24.99</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="37">
         <f>MAX(Gaurav!K:K)</f>
         <v>99.99</v>
       </c>
-      <c r="J11" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
+      <c r="J11" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J12" s="6"/>
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J13" s="54" t="s">
+      <c r="J13" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="56"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="64"/>
     </row>
     <row r="14" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="61"/>
+      <c r="A14" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="43"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="22" t="s">
@@ -1575,12 +1655,12 @@
         <f>VLOOKUP(A3, $H$3:$K$7, 2, FALSE)</f>
         <v>44562</v>
       </c>
-      <c r="J16" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="56"/>
+      <c r="J16" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="40"/>
     </row>
     <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6">
@@ -1618,12 +1698,12 @@
         <f>VLOOKUP(A4, $H$3:$K$7, 2, FALSE)</f>
         <v>44564</v>
       </c>
-      <c r="J17" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="61"/>
+      <c r="J17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="43"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
@@ -1700,12 +1780,12 @@
         <f>VLOOKUP(A6, $H$3:$K$7, 2, FALSE)</f>
         <v>44569</v>
       </c>
-      <c r="J19" s="54" t="s">
+      <c r="J19" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="56"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="40"/>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8">
@@ -1743,15 +1823,15 @@
         <f>VLOOKUP(A7, $H$3:$K$7, 2, FALSE)</f>
         <v>44571</v>
       </c>
-      <c r="J20" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="61"/>
+      <c r="J20" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="J19:M19"/>
@@ -1766,6 +1846,7 @@
     <mergeCell ref="J13:M13"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
